--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.630130.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.630130.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39462ECA-3C91-4066-ADA3-4A1F844A2E58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53FBC096-A378-4F8E-8F5B-F75B76773D28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T071757.036" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T065739.628" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.630130.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.630130.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53FBC096-A378-4F8E-8F5B-F75B76773D28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10D71A83-0A27-4CA3-83E2-3B8E3352CC47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T065739.628" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T070209.871" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
   <si>
     <t>Do Ty</t>
   </si>
@@ -224,6 +224,24 @@
   </si>
   <si>
     <t xml:space="preserve">   .</t>
+  </si>
+  <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>CASH JOURNAL - IDR</t>
+  </si>
+  <si>
+    <t>UPAH 2024</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>General Accounting</t>
+  </si>
+  <si>
+    <t>RPA2</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1078,7 +1096,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ6"/>
+  <dimension ref="A1:AZ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1377,40 +1395,151 @@
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3">
+        <v>24001048</v>
+      </c>
+      <c r="D3">
+        <v>1201</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45350</v>
+      </c>
       <c r="F3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="2">
-        <v>3929.89</v>
-      </c>
-      <c r="H3" s="2">
-        <v>3929.89</v>
-      </c>
-      <c r="L3" s="2">
-        <v>62104042</v>
+        <v>70</v>
+      </c>
+      <c r="G3">
+        <v>-691.76</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3">
+        <v>-691.76</v>
+      </c>
+      <c r="M3" s="2">
+        <v>-10931900</v>
       </c>
       <c r="N3" s="2">
-        <v>62104042</v>
-      </c>
-      <c r="AG3">
-        <v>1</v>
+        <v>-10931900</v>
+      </c>
+      <c r="O3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3">
+        <v>15803</v>
+      </c>
+      <c r="T3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" t="s">
+        <v>71</v>
+      </c>
+      <c r="W3" t="s">
+        <v>72</v>
+      </c>
+      <c r="X3">
+        <v>2105814</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3">
+        <v>20</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>45350</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP3">
+        <v>1205</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY3">
+        <v>630130</v>
+      </c>
+      <c r="AZ3">
+        <v>1205.63013</v>
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G4" s="2">
-        <v>3929.89</v>
+        <v>3238.13</v>
       </c>
       <c r="H4" s="2">
         <v>3929.89</v>
       </c>
+      <c r="K4">
+        <v>-691.76</v>
+      </c>
       <c r="L4" s="2">
         <v>62104042</v>
       </c>
+      <c r="M4" s="2">
+        <v>-10931900</v>
+      </c>
       <c r="N4" s="2">
-        <v>62104042</v>
+        <v>51172142</v>
       </c>
       <c r="AG4">
         <v>1</v>
@@ -1418,19 +1547,19 @@
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G5" s="2">
-        <v>3929.89</v>
+        <v>3238.13</v>
       </c>
       <c r="H5" s="2">
-        <v>3929.89</v>
+        <v>3238.13</v>
       </c>
       <c r="L5" s="2">
-        <v>62104042</v>
+        <v>51172142</v>
       </c>
       <c r="N5" s="2">
-        <v>62104042</v>
+        <v>51172142</v>
       </c>
       <c r="AG5">
         <v>1</v>
@@ -1438,7 +1567,33 @@
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3238.13</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3929.89</v>
+      </c>
+      <c r="K6">
+        <v>-691.76</v>
+      </c>
+      <c r="L6" s="2">
+        <v>62104042</v>
+      </c>
+      <c r="M6" s="2">
+        <v>-10931900</v>
+      </c>
+      <c r="N6" s="2">
+        <v>51172142</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
